--- a/src/main/resources/public/survey_form.xlsx
+++ b/src/main/resources/public/survey_form.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -131,26 +131,45 @@
     <t xml:space="preserve">TEN_CN_THUCHIEN</t>
   </si>
   <si>
-    <t xml:space="preserve">LE VAN LUONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOANG THUY LINH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN B</t>
+    <t xml:space="preserve">TRAN THUY UYEN THANH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0839451417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01214863399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACB - PGD BINH PHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO THI TRUC KHOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0938272299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACB - PGD GO VAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN XUAN THINH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0903717250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACB - CN BAC NINH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,7 +194,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -202,6 +221,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,7 +260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,8 +288,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,20 +302,28 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -287,6 +331,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -296,20 +341,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -335,47 +382,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>111222</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="4" t="n">
+        <v>333181</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>123213412</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>123213413</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>422341234324</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>243768119</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>444333</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>193423412</v>
+      <c r="B3" s="4" t="n">
+        <v>464356</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>422341234324</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
+        <v>243727209</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>5938325</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="n">
+        <v>243709049</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
